--- a/public/reportes/auditoria.xlsx
+++ b/public/reportes/auditoria.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
-  <si>
-    <t>Año de Auditoría</t>
-  </si>
-  <si>
-    <t>Número de Auditoría</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+  <si>
+    <t>Año de Auditoría:</t>
+  </si>
+  <si>
+    <t>Número de Auditoría:</t>
   </si>
   <si>
     <t>Nombre:</t>
@@ -26,15 +26,78 @@
     <t>Gasto Federalizado:</t>
   </si>
   <si>
-    <t>Tipo de Auditoría</t>
+    <t>Tipo de Auditoría:</t>
   </si>
   <si>
     <t>Número de Acta:</t>
   </si>
   <si>
+    <t>ADMINISTRACIÓN DE OFICIOS:</t>
+  </si>
+  <si>
+    <t>NOTIFICACIONES:</t>
+  </si>
+  <si>
+    <t>CONTESTACIÓN ÓRGANO:</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DE RESULTADOS:</t>
+  </si>
+  <si>
     <t>SE SOLICITA INFORMACIÓN PRELIMINAR A LAS DIRECCIONES DE LA SFYTGE:</t>
   </si>
   <si>
+    <t>OFICIO</t>
+  </si>
+  <si>
+    <t>FECHA VENCIMIENTO</t>
+  </si>
+  <si>
+    <t>SECRETARÍA</t>
+  </si>
+  <si>
+    <t>UNIDAD ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>FECHA OFICIO</t>
+  </si>
+  <si>
+    <t>FECHA RECIBIDO</t>
+  </si>
+  <si>
+    <t>PRÓRROGA</t>
+  </si>
+  <si>
+    <t>ÓRGANO</t>
+  </si>
+  <si>
+    <t>FOLIO SIGA</t>
+  </si>
+  <si>
+    <t>FECHA VENCIMENTO</t>
+  </si>
+  <si>
+    <t>TIPO DE RESULTADO</t>
+  </si>
+  <si>
+    <t>ESTATUS DE LOS RESULTADOS</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>CLAVE DE RESULTADO</t>
+  </si>
+  <si>
+    <t>RESULTADO/OBSERVACIÓN</t>
+  </si>
+  <si>
+    <t>RESULTADO SUPERVIVIENTE</t>
+  </si>
+  <si>
+    <t>NUMERO RESULTADO</t>
+  </si>
+  <si>
     <t>ÁREA NOTIFICADA</t>
   </si>
   <si>
@@ -45,9 +108,6 @@
   </si>
   <si>
     <t>SOLICITUD</t>
-  </si>
-  <si>
-    <t>FECHA RECIBIDO</t>
   </si>
   <si>
     <t>Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y
@@ -63,103 +123,124 @@
     <t>2022_1326_AFITAME_001</t>
   </si>
   <si>
+    <t>CTG-DCASC-459-2023</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>AEGF-5045-2023</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>SECRETARÍA DE FINANZAS Y TESORERÍA GENERAL DEL ESTADO</t>
+  </si>
+  <si>
     <t>COORDINACIÓN GENERAL ADMINISTRATIVA</t>
   </si>
   <si>
     <t>DASA-0077-2023</t>
   </si>
   <si>
-    <t>2023-05-26 22:16:28</t>
+    <t>DIRECCIÓN DE ADMINISTRACIÓN FINANCIERA</t>
+  </si>
+  <si>
+    <t>DASA-0082-2023</t>
+  </si>
+  <si>
+    <t>OFICINA DEL GOBERNADOR</t>
+  </si>
+  <si>
+    <t>CONSEJERÍA JURÍDICA</t>
+  </si>
+  <si>
+    <t>DASA-0001-2023</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>2024-03-05</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE PRESUPUESTO Y CONTROL PRESUPUESTAL</t>
+  </si>
+  <si>
+    <t>DASA-0079-2023</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
+  </si>
+  <si>
+    <t>DASA-0100-2023</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>DASA-0078-2023</t>
+  </si>
+  <si>
+    <t>PROCURADURÍA FISCAL</t>
+  </si>
+  <si>
+    <t>DASA-0080-2023</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>DASA-0081-2023</t>
+  </si>
+  <si>
+    <t>Auditoría Superior de la Federación ASF</t>
+  </si>
+  <si>
+    <t>DASA-1122-2023</t>
+  </si>
+  <si>
+    <t>Contraloría y Transparencia Gubernamental Gobierno del Estado de Nuevo León CTG</t>
+  </si>
+  <si>
+    <t>DASA-0122-2023</t>
+  </si>
+  <si>
+    <t>65/2023</t>
+  </si>
+  <si>
+    <t>2023-06-06</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
   </si>
   <si>
     <t>CGA-0228-2023</t>
   </si>
   <si>
-    <t>2023-05-31 17:24:09</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE ADMINISTRACIÓN FINANCIERA</t>
-  </si>
-  <si>
-    <t>DASA-0082-2023</t>
-  </si>
-  <si>
-    <t>2023-05-26 22:24:53</t>
-  </si>
-  <si>
     <t>DAF-1067-2023</t>
   </si>
   <si>
-    <t>2023-06-01 23:00:37</t>
-  </si>
-  <si>
-    <t>CONSEJERÍA JURÍDICA</t>
-  </si>
-  <si>
-    <t>DASA-0001-2023</t>
-  </si>
-  <si>
-    <t>2024-03-07 06:00:00</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE PRESUPUESTO Y CONTROL PRESUPUESTAL</t>
-  </si>
-  <si>
-    <t>DASA-0079-2023</t>
-  </si>
-  <si>
-    <t>2023-05-26 16:26:03</t>
+    <t>2023-06-01</t>
   </si>
   <si>
     <t>DPCP-348-2023</t>
   </si>
   <si>
-    <t>2023-06-01 23:03:12</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
-  </si>
-  <si>
-    <t>DASA-0100-2023</t>
-  </si>
-  <si>
-    <t>2023-05-31 16:11:40</t>
-  </si>
-  <si>
     <t>DCCP-0480-2023</t>
   </si>
   <si>
-    <t>2023-06-01 22:58:03</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>DASA-0078-2023</t>
-  </si>
-  <si>
-    <t>2023-05-26 16:27:34</t>
-  </si>
-  <si>
     <t>DDPYPF-090-2023</t>
   </si>
   <si>
-    <t>2023-06-05 23:04:15</t>
-  </si>
-  <si>
-    <t>PROCURADURÍA FISCAL</t>
-  </si>
-  <si>
-    <t>DASA-0080-2023</t>
-  </si>
-  <si>
-    <t>2023-05-26 10:04:47</t>
-  </si>
-  <si>
-    <t>DASA-0081-2023</t>
-  </si>
-  <si>
-    <t>2023-05-26 16:23:31</t>
+    <t>2023-06-05</t>
   </si>
 </sst>
 </file>
@@ -219,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -260,11 +341,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -280,6 +370,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -615,23 +711,45 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.7265625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.90625" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.1796875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="0"/>
-    <col min="5" max="5" width="14.1796875" customWidth="true" style="0"/>
-    <col min="6" max="6" width="30.6328125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.1796875" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.1796875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="33.7265625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="28.90625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.54296875" customWidth="true" style="0"/>
+    <col min="8" max="8" width="14.7265625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18.81640625" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.36328125" customWidth="true" style="0"/>
+    <col min="12" max="12" width="22" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13.90625" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11.453125" customWidth="true" style="0"/>
+    <col min="15" max="15" width="12.54296875" customWidth="true" style="0"/>
+    <col min="16" max="16" width="14.7265625" customWidth="true" style="0"/>
+    <col min="17" max="17" width="18.26953125" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18" customWidth="true" style="0"/>
+    <col min="20" max="20" width="25.81640625" customWidth="true" style="0"/>
+    <col min="21" max="21" width="7.54296875" customWidth="true" style="0"/>
+    <col min="22" max="22" width="21.1796875" customWidth="true" style="0"/>
+    <col min="23" max="23" width="32.81640625" customWidth="true" style="0"/>
+    <col min="24" max="24" width="24.453125" customWidth="true" style="0"/>
+    <col min="25" max="25" width="19" customWidth="true" style="0"/>
+    <col min="27" max="27" width="27.54296875" customWidth="true" style="0"/>
+    <col min="28" max="28" width="15" customWidth="true" style="0"/>
+    <col min="29" max="29" width="12.1796875" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9.6328125" customWidth="true" style="0"/>
+    <col min="31" max="31" width="15.08984375" customWidth="true" style="0"/>
+    <col min="32" max="32" width="14.7265625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +757,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,203 +765,509 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="L9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11"/>
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="AA11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12"/>
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14"/>
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12"/>
+      <c r="AE12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13"/>
+      <c r="AA13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15"/>
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD14"/>
+      <c r="AE14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15"/>
+      <c r="AE15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16"/>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD16"/>
+      <c r="AE16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="S9:Y9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/reportes/auditoria.xlsx
+++ b/public/reportes/auditoria.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Año de Auditoría:</t>
   </si>
@@ -32,16 +32,19 @@
     <t>Número de Acta:</t>
   </si>
   <si>
-    <t>ADMINISTRACIÓN DE OFICIOS:</t>
-  </si>
-  <si>
-    <t>NOTIFICACIONES:</t>
-  </si>
-  <si>
-    <t>CONTESTACIÓN ÓRGANO:</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIÓN DE RESULTADOS:</t>
+    <t>ORDEN DE AUDITORÍA</t>
+  </si>
+  <si>
+    <t>NOTIFICACIÓN A ÁREAS</t>
+  </si>
+  <si>
+    <t>ÁREA NOTIFICADA</t>
+  </si>
+  <si>
+    <t>CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN DE RESULTADOS</t>
   </si>
   <si>
     <t>SE SOLICITA INFORMACIÓN PRELIMINAR A LAS DIRECCIONES DE LA SFYTGE:</t>
@@ -53,7 +56,7 @@
     <t>FECHA VENCIMIENTO</t>
   </si>
   <si>
-    <t>SECRETARÍA</t>
+    <t>TIPO OFICIO</t>
   </si>
   <si>
     <t>UNIDAD ADMINISTRATIVA</t>
@@ -98,9 +101,6 @@
     <t>NUMERO RESULTADO</t>
   </si>
   <si>
-    <t>ÁREA NOTIFICADA</t>
-  </si>
-  <si>
     <t>No. DE OFICIO</t>
   </si>
   <si>
@@ -110,137 +110,78 @@
     <t>SOLICITUD</t>
   </si>
   <si>
-    <t>Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y
-los Municipios</t>
-  </si>
-  <si>
-    <t>Dirección General de Auditoría del Gasto Federalizado "C"</t>
+    <t>Transferencia de Recursos de los
+Subsidios Federales para Organismos
+Descentralizados Estatales de Educación
+Media Superior y Superior en su Vertiente
+Tecnológica y Politécnica
+U006</t>
+  </si>
+  <si>
+    <t>Dirección General de Auditoría del Gasto Federalizado "A"</t>
   </si>
   <si>
     <t>Programa Anual de Auditorías para la Fiscalización Superior (PAAF)</t>
   </si>
   <si>
-    <t>2022_1326_AFITAME_001</t>
-  </si>
-  <si>
-    <t>CTG-DCASC-459-2023</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>AEGF-5045-2023</t>
-  </si>
-  <si>
-    <t>2023-05-20</t>
-  </si>
-  <si>
-    <t>SECRETARÍA DE FINANZAS Y TESORERÍA GENERAL DEL ESTADO</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN GENERAL ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>DASA-0077-2023</t>
+    <t>ACTA DE INICIO 1342</t>
+  </si>
+  <si>
+    <t>CTG-DCASC-204-2023</t>
+  </si>
+  <si>
+    <t>2023-03-31</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN FINANCIERA</t>
   </si>
   <si>
-    <t>DASA-0082-2023</t>
-  </si>
-  <si>
-    <t>OFICINA DEL GOBERNADOR</t>
-  </si>
-  <si>
-    <t>CONSEJERÍA JURÍDICA</t>
-  </si>
-  <si>
-    <t>DASA-0001-2023</t>
-  </si>
-  <si>
-    <t>2024-03-07</t>
-  </si>
-  <si>
-    <t>2024-03-05</t>
-  </si>
-  <si>
-    <t>2024-03-11</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE PRESUPUESTO Y CONTROL PRESUPUESTAL</t>
-  </si>
-  <si>
-    <t>DASA-0079-2023</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
-  </si>
-  <si>
-    <t>DASA-0100-2023</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>DASA-0078-2023</t>
+    <t>DCCP-0269-2023</t>
+  </si>
+  <si>
+    <t>2023-03-23</t>
   </si>
   <si>
     <t>PROCURADURÍA FISCAL</t>
   </si>
   <si>
-    <t>DASA-0080-2023</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>DASA-0081-2023</t>
-  </si>
-  <si>
-    <t>Auditoría Superior de la Federación ASF</t>
-  </si>
-  <si>
-    <t>DASA-1122-2023</t>
+    <t>DCCP-0270-2023</t>
+  </si>
+  <si>
+    <t>2023-03-22</t>
+  </si>
+  <si>
+    <t>DAF-659-2023</t>
+  </si>
+  <si>
+    <t>2023-03-28</t>
   </si>
   <si>
     <t>Contraloría y Transparencia Gubernamental Gobierno del Estado de Nuevo León CTG</t>
   </si>
   <si>
-    <t>DASA-0122-2023</t>
-  </si>
-  <si>
-    <t>65/2023</t>
-  </si>
-  <si>
-    <t>2023-06-06</t>
-  </si>
-  <si>
-    <t>2023-06-07</t>
-  </si>
-  <si>
-    <t>CGA-0228-2023</t>
-  </si>
-  <si>
-    <t>DAF-1067-2023</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>DPCP-348-2023</t>
-  </si>
-  <si>
-    <t>DCCP-0480-2023</t>
-  </si>
-  <si>
-    <t>DDPYPF-090-2023</t>
-  </si>
-  <si>
-    <t>2023-06-05</t>
+    <t>DCCP-0312-2023</t>
+  </si>
+  <si>
+    <t>397/2023</t>
+  </si>
+  <si>
+    <t>2023-03-29</t>
+  </si>
+  <si>
+    <t>Recomendación</t>
+  </si>
+  <si>
+    <t>En seguimiento</t>
+  </si>
+  <si>
+    <t>2022-A-19000-19-1342-01-001</t>
+  </si>
+  <si>
+    <t>Para que el Gobierno del Estado de Nuevo León instrumente mecanismos de control y seguimiento que permitan conciliar, actualizar y validar el importe reportado a la Secretaría de Educación Pública de las transferencias de recursos estatales convenidos de los Subsidios Federales para Organismos Descentralizados Estatales, con el propósito de contribuir de manera proactiva al cumplimiento de los objetivos del programa y del marco normativo que lo rige.Los términos de esta recomendación y los mecanismos para su atención, por parte de la entidad fiscalizada, quedan asentados en el Acta de la Reunión de Presentación de Resultados Finales y Observaciones Preliminares en los términos del artículo 42 de la Ley de Fiscalización y Rendición de Cuentas de la Federación.</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -354,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,11 +313,17 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,45 +658,51 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="AE1">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.7265625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="19.1796875" customWidth="true" style="0"/>
     <col min="2" max="2" width="22.1796875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="33.7265625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.1796875" customWidth="true" style="0"/>
     <col min="5" max="5" width="28.90625" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.54296875" customWidth="true" style="0"/>
     <col min="8" max="8" width="14.7265625" customWidth="true" style="0"/>
     <col min="9" max="9" width="18.81640625" customWidth="true" style="0"/>
     <col min="10" max="10" width="10.36328125" customWidth="true" style="0"/>
-    <col min="12" max="12" width="22" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13.90625" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11.453125" customWidth="true" style="0"/>
-    <col min="15" max="15" width="12.54296875" customWidth="true" style="0"/>
-    <col min="16" max="16" width="14.7265625" customWidth="true" style="0"/>
-    <col min="17" max="17" width="18.26953125" customWidth="true" style="0"/>
-    <col min="19" max="19" width="18" customWidth="true" style="0"/>
-    <col min="20" max="20" width="25.81640625" customWidth="true" style="0"/>
-    <col min="21" max="21" width="7.54296875" customWidth="true" style="0"/>
-    <col min="22" max="22" width="21.1796875" customWidth="true" style="0"/>
-    <col min="23" max="23" width="32.81640625" customWidth="true" style="0"/>
-    <col min="24" max="24" width="24.453125" customWidth="true" style="0"/>
-    <col min="25" max="25" width="19" customWidth="true" style="0"/>
-    <col min="27" max="27" width="27.54296875" customWidth="true" style="0"/>
-    <col min="28" max="28" width="15" customWidth="true" style="0"/>
-    <col min="29" max="29" width="12.1796875" customWidth="true" style="0"/>
-    <col min="30" max="30" width="9.6328125" customWidth="true" style="0"/>
-    <col min="31" max="31" width="15.08984375" customWidth="true" style="0"/>
-    <col min="32" max="32" width="14.7265625" customWidth="true" style="0"/>
+    <col min="12" max="12" width="28.36328125" customWidth="true" style="0"/>
+    <col min="13" max="13" width="20.1796875" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16.1796875" customWidth="true" style="0"/>
+    <col min="15" max="15" width="19.36328125" customWidth="true" style="0"/>
+    <col min="16" max="16" width="20.90625" customWidth="true" style="0"/>
+    <col min="17" max="17" width="20.90625" customWidth="true" style="0"/>
+    <col min="19" max="19" width="22" customWidth="true" style="0"/>
+    <col min="20" max="20" width="13.90625" customWidth="true" style="0"/>
+    <col min="21" max="21" width="11.453125" customWidth="true" style="0"/>
+    <col min="22" max="22" width="12.54296875" customWidth="true" style="0"/>
+    <col min="23" max="23" width="14.7265625" customWidth="true" style="0"/>
+    <col min="24" max="24" width="18.26953125" customWidth="true" style="0"/>
+    <col min="26" max="26" width="18" customWidth="true" style="0"/>
+    <col min="27" max="27" width="25.81640625" customWidth="true" style="0"/>
+    <col min="28" max="28" width="7.54296875" customWidth="true" style="0"/>
+    <col min="29" max="29" width="21.1796875" customWidth="true" style="0"/>
+    <col min="30" max="30" width="32.81640625" customWidth="true" style="0"/>
+    <col min="31" max="31" width="24.453125" customWidth="true" style="0"/>
+    <col min="32" max="32" width="19" customWidth="true" style="0"/>
+    <col min="34" max="34" width="27.54296875" customWidth="true" style="0"/>
+    <col min="35" max="35" width="15" customWidth="true" style="0"/>
+    <col min="36" max="36" width="12.1796875" customWidth="true" style="0"/>
+    <col min="37" max="37" width="18.81640625" customWidth="true" style="0"/>
+    <col min="38" max="38" width="15.08984375" customWidth="true" style="0"/>
+    <col min="39" max="39" width="14.7265625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,15 +710,15 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:39">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1326</v>
+        <v>1342</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:39">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -773,7 +726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:39">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,7 +734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:39">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,7 +742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:39">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,477 +750,298 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="L9" s="8" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="S9" s="7" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="S9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="AA9" s="6" t="s">
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Z9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AH9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:39">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="M10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="O10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="U10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AH10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AJ10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AE10" s="5" t="s">
+      <c r="AL10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF10" s="5" t="s">
-        <v>16</v>
+      <c r="AM10" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11"/>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11">
+        <v>0.0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK11"/>
+      <c r="AL11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="AA11" t="s">
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH12" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AI12" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD11"/>
-      <c r="AE11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="AJ12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD12"/>
-      <c r="AE12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13"/>
-      <c r="AA13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD14"/>
-      <c r="AE14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD15"/>
-      <c r="AE15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD16"/>
-      <c r="AE16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-    </row>
-    <row r="18" spans="1:32">
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AH9:AM9"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="Z9:AF9"/>
     <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="S9:Y9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/reportes/auditoria.xlsx
+++ b/public/reportes/auditoria.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>Año de Auditoría:</t>
   </si>
@@ -44,42 +44,60 @@
     <t>CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
   </si>
   <si>
+    <t>RESPUESTA A CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
+  </si>
+  <si>
     <t>ADMINISTRACIÓN DE RESULTADOS</t>
   </si>
   <si>
     <t>SE SOLICITA INFORMACIÓN PRELIMINAR A LAS DIRECCIONES DE LA SFYTGE:</t>
   </si>
   <si>
+    <t>OFICIO ORDEN</t>
+  </si>
+  <si>
+    <t>FECHA OFICIO</t>
+  </si>
+  <si>
+    <t>OFICIO NOTIFICACIÓN</t>
+  </si>
+  <si>
+    <t>FECHA VENCIMIENTO</t>
+  </si>
+  <si>
+    <t>OFICIO SOLICITUD</t>
+  </si>
+  <si>
+    <t>FECHA SOLICITUD</t>
+  </si>
+  <si>
+    <t>UNIDAD ADMINISTRATIVA</t>
+  </si>
+  <si>
     <t>OFICIO</t>
   </si>
   <si>
-    <t>FECHA VENCIMIENTO</t>
-  </si>
-  <si>
-    <t>TIPO OFICIO</t>
-  </si>
-  <si>
-    <t>UNIDAD ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>FECHA OFICIO</t>
-  </si>
-  <si>
     <t>FECHA RECIBIDO</t>
   </si>
   <si>
-    <t>PRÓRROGA</t>
-  </si>
-  <si>
     <t>ÓRGANO</t>
   </si>
   <si>
     <t>FOLIO SIGA</t>
   </si>
   <si>
+    <t>ENTREGA</t>
+  </si>
+  <si>
     <t>FECHA VENCIMENTO</t>
   </si>
   <si>
+    <t>ÓRGANO ORIGEN</t>
+  </si>
+  <si>
+    <t>ÓRGANO DESTINO</t>
+  </si>
+  <si>
     <t>TIPO DE RESULTADO</t>
   </si>
   <si>
@@ -110,78 +128,236 @@
     <t>SOLICITUD</t>
   </si>
   <si>
-    <t>Transferencia de Recursos de los
-Subsidios Federales para Organismos
-Descentralizados Estatales de Educación
-Media Superior y Superior en su Vertiente
-Tecnológica y Politécnica
-U006</t>
-  </si>
-  <si>
-    <t>Dirección General de Auditoría del Gasto Federalizado "A"</t>
+    <t>Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y
+los Municipios</t>
+  </si>
+  <si>
+    <t>Dirección General de Auditoría del Gasto Federalizado "C"</t>
   </si>
   <si>
     <t>Programa Anual de Auditorías para la Fiscalización Superior (PAAF)</t>
   </si>
   <si>
-    <t>ACTA DE INICIO 1342</t>
-  </si>
-  <si>
-    <t>CTG-DCASC-204-2023</t>
-  </si>
-  <si>
-    <t>2023-03-31</t>
+    <t>2022_1326_AFITAME_001</t>
+  </si>
+  <si>
+    <t>AEGF-5045-2023</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>CTG-DCASC-459-2023</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>prueba de oficio 2</t>
+  </si>
+  <si>
+    <t>prueba de oficio 1</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
+  </si>
+  <si>
+    <t>DASA-0004-2024</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN GENERAL ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>DASA-0077-2023</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>DASA-0078-2023</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE PRESUPUESTO Y CONTROL PRESUPUESTAL</t>
+  </si>
+  <si>
+    <t>DASA-0079-2023</t>
+  </si>
+  <si>
+    <t>PROCURADURÍA FISCAL</t>
+  </si>
+  <si>
+    <t>DASA-0080-2023</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>DASA-0081-2023</t>
   </si>
   <si>
     <t>DIRECCIÓN DE ADMINISTRACIÓN FINANCIERA</t>
   </si>
   <si>
-    <t>DCCP-0269-2023</t>
-  </si>
-  <si>
-    <t>2023-03-23</t>
-  </si>
-  <si>
-    <t>PROCURADURÍA FISCAL</t>
-  </si>
-  <si>
-    <t>DCCP-0270-2023</t>
-  </si>
-  <si>
-    <t>2023-03-22</t>
-  </si>
-  <si>
-    <t>DAF-659-2023</t>
-  </si>
-  <si>
-    <t>2023-03-28</t>
+    <t>DASA-0082-2023</t>
+  </si>
+  <si>
+    <t>DASA-0100-2023</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>DASA-0130-2023</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>DASA-0242-2023</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>DASA-0248-2023</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>DASA-0249-2023</t>
+  </si>
+  <si>
+    <t>DASA-0250-2023</t>
+  </si>
+  <si>
+    <t>DASA-0254-2023</t>
+  </si>
+  <si>
+    <t>DASA-0255-2023</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>DASA-0269-2023</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>DASA-0272-2023</t>
+  </si>
+  <si>
+    <t>DASA-0280-2023</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>CGA-0228-2023</t>
+  </si>
+  <si>
+    <t>DAF-1067-2023</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>DCCP-0480-2023</t>
+  </si>
+  <si>
+    <t>DDPYPF-090-2023</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>DDPYPF-092-2023</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>DPCP-348-2023</t>
+  </si>
+  <si>
+    <t>Auditoría Superior de la Federación ASF</t>
+  </si>
+  <si>
+    <t>,kj</t>
+  </si>
+  <si>
+    <t>Entrega 1</t>
+  </si>
+  <si>
+    <t>Secretaría de la Función Pública SFP</t>
+  </si>
+  <si>
+    <t>jfvgnkdfvk</t>
   </si>
   <si>
     <t>Contraloría y Transparencia Gubernamental Gobierno del Estado de Nuevo León CTG</t>
   </si>
   <si>
-    <t>DCCP-0312-2023</t>
-  </si>
-  <si>
-    <t>397/2023</t>
-  </si>
-  <si>
-    <t>2023-03-29</t>
-  </si>
-  <si>
-    <t>Recomendación</t>
-  </si>
-  <si>
-    <t>En seguimiento</t>
-  </si>
-  <si>
-    <t>2022-A-19000-19-1342-01-001</t>
-  </si>
-  <si>
-    <t>Para que el Gobierno del Estado de Nuevo León instrumente mecanismos de control y seguimiento que permitan conciliar, actualizar y validar el importe reportado a la Secretaría de Educación Pública de las transferencias de recursos estatales convenidos de los Subsidios Federales para Organismos Descentralizados Estatales, con el propósito de contribuir de manera proactiva al cumplimiento de los objetivos del programa y del marco normativo que lo rige.Los términos de esta recomendación y los mecanismos para su atención, por parte de la entidad fiscalizada, quedan asentados en el Acta de la Reunión de Presentación de Resultados Finales y Observaciones Preliminares en los términos del artículo 42 de la Ley de Fiscalización y Rendición de Cuentas de la Federación.</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>DASA-0122-2023</t>
+  </si>
+  <si>
+    <t>65/2023</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>Auditoria Superior del Estado de Nuevo Leon ASENL</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>Solicitud de información' relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en · la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las 'Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>En alcance al oficio DASA-0081/2023, relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>Solicitud de información relativa a la1 Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de información complementaria a la 
+Auditoría 1326, cumplimiento de las Disposiciones Establecidas en al Ley de Disciplina Financiera de las Entidades Federativas y los Municipios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de información complementaria a la 
+Auditoría 1326, cumplimiento de las Disposiciones Establecidas en al Ley de Disciplina Financiera de las Entidades Federativas y los Municipios 
+</t>
+  </si>
+  <si>
+    <t>Se otorga prórroga</t>
   </si>
 </sst>
 </file>
@@ -295,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -310,8 +486,8 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -321,9 +497,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,10 +831,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="AE1">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.7265625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -669,40 +842,47 @@
     <col min="1" max="1" width="19.1796875" customWidth="true" style="0"/>
     <col min="2" max="2" width="22.1796875" customWidth="true" style="0"/>
     <col min="3" max="3" width="22.1796875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="28.90625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12.54296875" customWidth="true" style="0"/>
-    <col min="8" max="8" width="14.7265625" customWidth="true" style="0"/>
-    <col min="9" max="9" width="18.81640625" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.36328125" customWidth="true" style="0"/>
-    <col min="12" max="12" width="28.36328125" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20.1796875" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.1796875" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19.36328125" customWidth="true" style="0"/>
-    <col min="16" max="16" width="20.90625" customWidth="true" style="0"/>
-    <col min="17" max="17" width="20.90625" customWidth="true" style="0"/>
-    <col min="19" max="19" width="22" customWidth="true" style="0"/>
-    <col min="20" max="20" width="13.90625" customWidth="true" style="0"/>
+    <col min="4" max="4" width="22.1796875" customWidth="true" style="0"/>
+    <col min="5" max="5" width="22.1796875" customWidth="true" style="0"/>
+    <col min="6" max="6" width="22.1796875" customWidth="true" style="0"/>
+    <col min="8" max="8" width="28.90625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.54296875" customWidth="true" style="0"/>
+    <col min="11" max="11" width="14.7265625" customWidth="true" style="0"/>
+    <col min="13" max="13" width="28.36328125" customWidth="true" style="0"/>
+    <col min="14" max="14" width="20.1796875" customWidth="true" style="0"/>
+    <col min="15" max="15" width="16.1796875" customWidth="true" style="0"/>
+    <col min="16" max="16" width="19.36328125" customWidth="true" style="0"/>
+    <col min="18" max="18" width="22" customWidth="true" style="0"/>
+    <col min="19" max="19" width="13.90625" customWidth="true" style="0"/>
+    <col min="20" max="20" width="11.453125" customWidth="true" style="0"/>
     <col min="21" max="21" width="11.453125" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.54296875" customWidth="true" style="0"/>
     <col min="23" max="23" width="14.7265625" customWidth="true" style="0"/>
     <col min="24" max="24" width="18.26953125" customWidth="true" style="0"/>
-    <col min="26" max="26" width="18" customWidth="true" style="0"/>
-    <col min="27" max="27" width="25.81640625" customWidth="true" style="0"/>
-    <col min="28" max="28" width="7.54296875" customWidth="true" style="0"/>
-    <col min="29" max="29" width="21.1796875" customWidth="true" style="0"/>
-    <col min="30" max="30" width="32.81640625" customWidth="true" style="0"/>
-    <col min="31" max="31" width="24.453125" customWidth="true" style="0"/>
+    <col min="26" max="26" width="19" customWidth="true" style="0"/>
+    <col min="27" max="27" width="19" customWidth="true" style="0"/>
+    <col min="28" max="28" width="19" customWidth="true" style="0"/>
+    <col min="29" max="29" width="19" customWidth="true" style="0"/>
+    <col min="30" max="30" width="19" customWidth="true" style="0"/>
+    <col min="31" max="31" width="19" customWidth="true" style="0"/>
     <col min="32" max="32" width="19" customWidth="true" style="0"/>
-    <col min="34" max="34" width="27.54296875" customWidth="true" style="0"/>
-    <col min="35" max="35" width="15" customWidth="true" style="0"/>
-    <col min="36" max="36" width="12.1796875" customWidth="true" style="0"/>
-    <col min="37" max="37" width="18.81640625" customWidth="true" style="0"/>
-    <col min="38" max="38" width="15.08984375" customWidth="true" style="0"/>
-    <col min="39" max="39" width="14.7265625" customWidth="true" style="0"/>
+    <col min="34" max="34" width="18" customWidth="true" style="0"/>
+    <col min="35" max="35" width="25.81640625" customWidth="true" style="0"/>
+    <col min="36" max="36" width="7.54296875" customWidth="true" style="0"/>
+    <col min="37" max="37" width="21.1796875" customWidth="true" style="0"/>
+    <col min="38" max="38" width="32.81640625" customWidth="true" style="0"/>
+    <col min="39" max="39" width="24.453125" customWidth="true" style="0"/>
+    <col min="40" max="40" width="19" customWidth="true" style="0"/>
+    <col min="42" max="42" width="27.54296875" customWidth="true" style="0"/>
+    <col min="43" max="43" width="15" customWidth="true" style="0"/>
+    <col min="44" max="44" width="12.1796875" customWidth="true" style="0"/>
+    <col min="45" max="45" width="18.81640625" customWidth="true" style="0"/>
+    <col min="46" max="46" width="15.08984375" customWidth="true" style="0"/>
+    <col min="47" max="47" width="14.7265625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,338 +890,919 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="8"/>
+      <c r="M9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="S9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
-      <c r="Z9" s="8" t="s">
+      <c r="Z9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AH9" s="7" t="s">
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AH9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-    </row>
-    <row r="10" spans="1:39">
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AP9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+    </row>
+    <row r="10" spans="1:47" customHeight="1" ht="15.5">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="U10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AI10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39">
+      <c r="AQ10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11"/>
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F11"/>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Z11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB11">
+        <v>123</v>
+      </c>
+      <c r="AC11">
+        <v>123</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12"/>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="AP12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
         <v>45</v>
       </c>
-      <c r="O11" t="s">
+      <c r="K13" t="s">
         <v>45</v>
       </c>
-      <c r="P11" t="s">
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>85</v>
+      </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13" t="s">
+        <v>93</v>
+      </c>
+      <c r="V13" t="s">
+        <v>99</v>
+      </c>
+      <c r="W13" t="s">
+        <v>100</v>
+      </c>
+      <c r="X13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR13" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="AS13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
         <v>45</v>
       </c>
-      <c r="S11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT15"/>
+      <c r="AU15"/>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="H16" t="s">
         <v>48</v>
       </c>
-      <c r="V11" t="s">
-        <v>49</v>
-      </c>
-      <c r="W11" t="s">
-        <v>49</v>
-      </c>
-      <c r="X11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB11">
-        <v>0.0</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="I16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT16"/>
+      <c r="AU16"/>
+    </row>
+    <row r="17" spans="1:47">
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
         <v>53</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT19"/>
+      <c r="AU19"/>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="H20" t="s">
         <v>54</v>
       </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK11"/>
-      <c r="AL11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12"/>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT20"/>
+      <c r="AU20"/>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT21"/>
+      <c r="AU21"/>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT22"/>
+      <c r="AU22"/>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT23"/>
+      <c r="AU23"/>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT24"/>
+      <c r="AU24"/>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT25"/>
+      <c r="AU25"/>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT26"/>
+      <c r="AU26"/>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT27"/>
+      <c r="AU27"/>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT28"/>
+      <c r="AU28"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AP9:AU9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="R9:X9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="L9:Q9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/reportes/auditoria.xlsx
+++ b/public/reportes/auditoria.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>Año de Auditoría:</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>ÓRGANO ORIGEN</t>
-  </si>
-  <si>
-    <t>ÓRGANO DESTINO</t>
   </si>
   <si>
     <t>TIPO DE RESULTADO</t>
@@ -303,6 +300,9 @@
     <t>jfvgnkdfvk</t>
   </si>
   <si>
+    <t>Entrega 2</t>
+  </si>
+  <si>
     <t>Contraloría y Transparencia Gubernamental Gobierno del Estado de Nuevo León CTG</t>
   </si>
   <si>
@@ -318,13 +318,19 @@
     <t>2023-06-09</t>
   </si>
   <si>
-    <t>Auditoria Superior del Estado de Nuevo Leon ASENL</t>
+    <t>DASA-1122-2023</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
   </si>
   <si>
     <t>2024-04-13</t>
-  </si>
-  <si>
-    <t>2024-04-11</t>
   </si>
   <si>
     <t>2024-04-08</t>
@@ -831,7 +837,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AU28"/>
+  <dimension ref="A1:AT28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B2" sqref="B2"/>
@@ -866,23 +872,22 @@
     <col min="29" max="29" width="19" customWidth="true" style="0"/>
     <col min="30" max="30" width="19" customWidth="true" style="0"/>
     <col min="31" max="31" width="19" customWidth="true" style="0"/>
-    <col min="32" max="32" width="19" customWidth="true" style="0"/>
-    <col min="34" max="34" width="18" customWidth="true" style="0"/>
-    <col min="35" max="35" width="25.81640625" customWidth="true" style="0"/>
-    <col min="36" max="36" width="7.54296875" customWidth="true" style="0"/>
-    <col min="37" max="37" width="21.1796875" customWidth="true" style="0"/>
-    <col min="38" max="38" width="32.81640625" customWidth="true" style="0"/>
-    <col min="39" max="39" width="24.453125" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19" customWidth="true" style="0"/>
-    <col min="42" max="42" width="27.54296875" customWidth="true" style="0"/>
-    <col min="43" max="43" width="15" customWidth="true" style="0"/>
-    <col min="44" max="44" width="12.1796875" customWidth="true" style="0"/>
-    <col min="45" max="45" width="18.81640625" customWidth="true" style="0"/>
-    <col min="46" max="46" width="15.08984375" customWidth="true" style="0"/>
-    <col min="47" max="47" width="14.7265625" customWidth="true" style="0"/>
+    <col min="33" max="33" width="18" customWidth="true" style="0"/>
+    <col min="34" max="34" width="25.81640625" customWidth="true" style="0"/>
+    <col min="35" max="35" width="7.54296875" customWidth="true" style="0"/>
+    <col min="36" max="36" width="21.1796875" customWidth="true" style="0"/>
+    <col min="37" max="37" width="32.81640625" customWidth="true" style="0"/>
+    <col min="38" max="38" width="24.453125" customWidth="true" style="0"/>
+    <col min="39" max="39" width="19" customWidth="true" style="0"/>
+    <col min="41" max="41" width="27.54296875" customWidth="true" style="0"/>
+    <col min="42" max="42" width="15" customWidth="true" style="0"/>
+    <col min="43" max="43" width="12.1796875" customWidth="true" style="0"/>
+    <col min="44" max="44" width="18.81640625" customWidth="true" style="0"/>
+    <col min="45" max="45" width="15.08984375" customWidth="true" style="0"/>
+    <col min="46" max="46" width="14.7265625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +895,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:46">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -898,39 +903,39 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:46">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -968,26 +973,25 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AH9" s="8" t="s">
+      <c r="AG9" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AP9" s="7" t="s">
+      <c r="AO9" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="AP9" s="7"/>
       <c r="AQ9" s="7"/>
       <c r="AR9" s="7"/>
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-    </row>
-    <row r="10" spans="1:47" customHeight="1" ht="15.5">
+    </row>
+    <row r="10" spans="1:46" customHeight="1" ht="15.5">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1055,22 +1059,22 @@
         <v>26</v>
       </c>
       <c r="AA10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="AH10" s="2" t="s">
         <v>28</v>
@@ -1090,102 +1094,99 @@
       <c r="AM10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="AQ10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AR10" s="3" t="s">
+      <c r="AR10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AS10" s="4" t="s">
-        <v>37</v>
+      <c r="AS10" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="AT10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:46">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11"/>
       <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>48</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>49</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R11" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" t="s">
         <v>91</v>
-      </c>
-      <c r="S11" t="s">
-        <v>92</v>
       </c>
       <c r="T11"/>
       <c r="U11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Z11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="AA11">
+        <v>123</v>
       </c>
       <c r="AB11">
         <v>123</v>
       </c>
-      <c r="AC11">
-        <v>123</v>
+      <c r="AC11" t="s">
+        <v>105</v>
       </c>
       <c r="AD11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>47</v>
       </c>
       <c r="AP11" t="s">
         <v>48</v>
@@ -1193,55 +1194,55 @@
       <c r="AQ11" t="s">
         <v>49</v>
       </c>
-      <c r="AR11" t="s">
-        <v>50</v>
-      </c>
+      <c r="AR11"/>
       <c r="AS11"/>
       <c r="AT11"/>
-      <c r="AU11"/>
-    </row>
-    <row r="12" spans="1:47">
+    </row>
+    <row r="12" spans="1:46">
       <c r="C12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12"/>
       <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
         <v>51</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>52</v>
       </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
         <v>83</v>
       </c>
-      <c r="O12" t="s">
-        <v>84</v>
-      </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R12" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" t="s">
         <v>94</v>
-      </c>
-      <c r="S12" t="s">
-        <v>95</v>
       </c>
       <c r="T12"/>
       <c r="U12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
       <c r="X12"/>
+      <c r="AO12" t="s">
+        <v>50</v>
+      </c>
       <c r="AP12" t="s">
         <v>51</v>
       </c>
@@ -1249,42 +1250,39 @@
         <v>52</v>
       </c>
       <c r="AR12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="AS12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:47">
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>54</v>
       </c>
-      <c r="I13" t="s">
-        <v>55</v>
-      </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R13" t="s">
         <v>96</v>
@@ -1296,7 +1294,7 @@
         <v>98</v>
       </c>
       <c r="U13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V13" t="s">
         <v>99</v>
@@ -1307,502 +1305,521 @@
       <c r="X13" t="s">
         <v>100</v>
       </c>
+      <c r="AO13" t="s">
+        <v>53</v>
+      </c>
       <c r="AP13" t="s">
         <v>54</v>
       </c>
       <c r="AQ13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AR13" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="AS13" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="AT13" t="s">
         <v>86</v>
       </c>
-      <c r="AU13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:47">
+    </row>
+    <row r="14" spans="1:46">
       <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
         <v>56</v>
       </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
         <v>86</v>
       </c>
-      <c r="O14" t="s">
-        <v>87</v>
-      </c>
       <c r="P14" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="R14" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14">
+        <v>2023</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>55</v>
       </c>
       <c r="AP14" t="s">
         <v>56</v>
       </c>
       <c r="AQ14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="H15" t="s">
         <v>57</v>
       </c>
-      <c r="AR14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47">
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" t="s">
         <v>59</v>
       </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" t="s">
-        <v>60</v>
-      </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" t="s">
         <v>88</v>
       </c>
-      <c r="O15" t="s">
-        <v>89</v>
-      </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>57</v>
       </c>
       <c r="AP15" t="s">
         <v>58</v>
       </c>
       <c r="AQ15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS15"/>
+      <c r="AT15"/>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
         <v>59</v>
       </c>
-      <c r="AR15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT15"/>
-      <c r="AU15"/>
-    </row>
-    <row r="16" spans="1:47">
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS16"/>
+      <c r="AT16"/>
+    </row>
+    <row r="17" spans="1:46">
+      <c r="H17" t="s">
         <v>61</v>
       </c>
-      <c r="J16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" t="s">
-        <v>90</v>
-      </c>
-      <c r="O16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ16" t="s">
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO17" t="s">
         <v>61</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT16"/>
-      <c r="AU16"/>
-    </row>
-    <row r="17" spans="1:47">
-      <c r="H17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" t="s">
-        <v>53</v>
       </c>
       <c r="AP17" t="s">
         <v>62</v>
       </c>
       <c r="AQ17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AR17" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="AS17" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="AT17" t="s">
         <v>83</v>
       </c>
-      <c r="AU17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:47">
+    </row>
+    <row r="18" spans="1:46">
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
         <v>64</v>
       </c>
-      <c r="J18" t="s">
-        <v>65</v>
-      </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>47</v>
       </c>
       <c r="AP18" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="AQ18" t="s">
         <v>64</v>
       </c>
       <c r="AR18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46">
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>65</v>
       </c>
-      <c r="AS18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:47">
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>66</v>
       </c>
-      <c r="J19" t="s">
-        <v>67</v>
-      </c>
       <c r="K19" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>47</v>
       </c>
       <c r="AP19" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AQ19" t="s">
         <v>66</v>
       </c>
       <c r="AR19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS19"/>
+      <c r="AT19"/>
+    </row>
+    <row r="20" spans="1:46">
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
         <v>67</v>
       </c>
-      <c r="AS19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT19"/>
-      <c r="AU19"/>
-    </row>
-    <row r="20" spans="1:47">
-      <c r="H20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>68</v>
       </c>
-      <c r="J20" t="s">
-        <v>69</v>
-      </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>53</v>
       </c>
       <c r="AP20" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AQ20" t="s">
         <v>68</v>
       </c>
       <c r="AR20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS20"/>
+      <c r="AT20"/>
+    </row>
+    <row r="21" spans="1:46">
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
         <v>69</v>
       </c>
-      <c r="AS20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT20"/>
-      <c r="AU20"/>
-    </row>
-    <row r="21" spans="1:47">
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>70</v>
       </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>53</v>
       </c>
       <c r="AP21" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="AQ21" t="s">
         <v>70</v>
       </c>
       <c r="AR21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS21"/>
+      <c r="AT21"/>
+    </row>
+    <row r="22" spans="1:46">
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>71</v>
       </c>
-      <c r="AS21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT21"/>
-      <c r="AU21"/>
-    </row>
-    <row r="22" spans="1:47">
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS22"/>
+      <c r="AT22"/>
+    </row>
+    <row r="23" spans="1:46">
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>72</v>
       </c>
-      <c r="J22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ22" t="s">
+      <c r="J23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP23" t="s">
         <v>72</v>
       </c>
-      <c r="AR22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT22"/>
-      <c r="AU22"/>
-    </row>
-    <row r="23" spans="1:47">
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="AQ23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS23"/>
+      <c r="AT23"/>
+    </row>
+    <row r="24" spans="1:46">
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
         <v>73</v>
       </c>
-      <c r="J23" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ23" t="s">
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP24" t="s">
         <v>73</v>
       </c>
-      <c r="AR23" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT23"/>
-      <c r="AU23"/>
-    </row>
-    <row r="24" spans="1:47">
-      <c r="H24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="AQ24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS24"/>
+      <c r="AT24"/>
+    </row>
+    <row r="25" spans="1:46">
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>74</v>
       </c>
-      <c r="J24" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ24" t="s">
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP25" t="s">
         <v>74</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT24"/>
-      <c r="AU24"/>
-    </row>
-    <row r="25" spans="1:47">
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>48</v>
       </c>
       <c r="AQ25" t="s">
         <v>75</v>
       </c>
       <c r="AR25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS25"/>
+      <c r="AT25"/>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>76</v>
       </c>
-      <c r="AS25" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT25"/>
-      <c r="AU25"/>
-    </row>
-    <row r="26" spans="1:47">
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>77</v>
       </c>
-      <c r="J26" t="s">
-        <v>78</v>
-      </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>47</v>
       </c>
       <c r="AP26" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="AQ26" t="s">
         <v>77</v>
       </c>
       <c r="AR26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS26"/>
+      <c r="AT26"/>
+    </row>
+    <row r="27" spans="1:46">
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
         <v>78</v>
       </c>
-      <c r="AS26" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT26"/>
-      <c r="AU26"/>
-    </row>
-    <row r="27" spans="1:47">
-      <c r="H27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS27"/>
+      <c r="AT27"/>
+    </row>
+    <row r="28" spans="1:46">
+      <c r="H28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" t="s">
         <v>79</v>
       </c>
-      <c r="J27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ27" t="s">
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP28" t="s">
         <v>79</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT27"/>
-      <c r="AU27"/>
-    </row>
-    <row r="28" spans="1:47">
-      <c r="H28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>54</v>
       </c>
       <c r="AQ28" t="s">
         <v>80</v>
       </c>
       <c r="AR28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>113</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AS28"/>
       <c r="AT28"/>
-      <c r="AU28"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AP9:AU9"/>
+    <mergeCell ref="AO9:AT9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="R9:X9"/>
-    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AG9:AM9"/>
     <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="Z9:AE9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/reportes/auditoria.xlsx
+++ b/public/reportes/auditoria.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>Año de Auditoría:</t>
   </si>
@@ -125,245 +125,109 @@
     <t>SOLICITUD</t>
   </si>
   <si>
-    <t>Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y
-los Municipios</t>
-  </si>
-  <si>
-    <t>Dirección General de Auditoría del Gasto Federalizado "C"</t>
+    <t>Distribución de las Participaciones Federales</t>
+  </si>
+  <si>
+    <t>Dirección General de Evaluación del Gasto Federalizado</t>
   </si>
   <si>
     <t>Programa Anual de Auditorías para la Fiscalización Superior (PAAF)</t>
   </si>
   <si>
-    <t>2022_1326_AFITAME_001</t>
-  </si>
-  <si>
-    <t>AEGF-5045-2023</t>
-  </si>
-  <si>
-    <t>2023-05-20</t>
-  </si>
-  <si>
-    <t>CTG-DCASC-459-2023</t>
-  </si>
-  <si>
-    <t>2023-05-26</t>
-  </si>
-  <si>
-    <t>prueba de oficio 2</t>
-  </si>
-  <si>
-    <t>prueba de oficio 1</t>
+    <t>CTG-DCASC-112-2023</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>CTG-DCASC-233-2023</t>
+  </si>
+  <si>
+    <t>AEGF-0070-2023</t>
+  </si>
+  <si>
+    <t>AEGF-3356-2023</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
+  </si>
+  <si>
+    <t>DASA-0001-2023</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE PLANEACIÓN HACENDARIA</t>
+  </si>
+  <si>
+    <t>DASA-0044-2023</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
   </si>
   <si>
     <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
   </si>
   <si>
-    <t>DASA-0004-2024</t>
-  </si>
-  <si>
-    <t>2024-01-04</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN GENERAL ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>DASA-0077-2023</t>
-  </si>
-  <si>
-    <t>2023-05-27</t>
+    <t>DASA-0046-2023</t>
+  </si>
+  <si>
+    <t>DCCP-0099-2023</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE ADMINISTRACIÓN FINANCIERA</t>
+  </si>
+  <si>
+    <t>DCCP-0100-2023</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE ATENCIÓN A MUNICIPIOS Y ORGANISMOS PARAESTATALES</t>
+  </si>
+  <si>
+    <t>DCCP-0101-2023</t>
+  </si>
+  <si>
+    <t>DCCP-102-2023</t>
   </si>
   <si>
     <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
   </si>
   <si>
-    <t>DASA-0078-2023</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE PRESUPUESTO Y CONTROL PRESUPUESTAL</t>
-  </si>
-  <si>
-    <t>DASA-0079-2023</t>
-  </si>
-  <si>
-    <t>PROCURADURÍA FISCAL</t>
-  </si>
-  <si>
-    <t>DASA-0080-2023</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>DASA-0081-2023</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE ADMINISTRACIÓN FINANCIERA</t>
-  </si>
-  <si>
-    <t>DASA-0082-2023</t>
-  </si>
-  <si>
-    <t>DASA-0100-2023</t>
-  </si>
-  <si>
-    <t>2023-05-31</t>
-  </si>
-  <si>
-    <t>DASA-0130-2023</t>
-  </si>
-  <si>
-    <t>2023-06-07</t>
-  </si>
-  <si>
-    <t>DASA-0242-2023</t>
-  </si>
-  <si>
-    <t>2023-06-30</t>
-  </si>
-  <si>
-    <t>DASA-0248-2023</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>DASA-0249-2023</t>
-  </si>
-  <si>
-    <t>DASA-0250-2023</t>
-  </si>
-  <si>
-    <t>DASA-0254-2023</t>
-  </si>
-  <si>
-    <t>DASA-0255-2023</t>
-  </si>
-  <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>DASA-0269-2023</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
-    <t>DASA-0272-2023</t>
-  </si>
-  <si>
-    <t>DASA-0280-2023</t>
-  </si>
-  <si>
-    <t>2023-07-13</t>
-  </si>
-  <si>
-    <t>CGA-0228-2023</t>
-  </si>
-  <si>
-    <t>DAF-1067-2023</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>DCCP-0480-2023</t>
-  </si>
-  <si>
-    <t>DDPYPF-090-2023</t>
-  </si>
-  <si>
-    <t>2023-06-05</t>
-  </si>
-  <si>
-    <t>DDPYPF-092-2023</t>
-  </si>
-  <si>
-    <t>2023-06-19</t>
-  </si>
-  <si>
-    <t>DPCP-348-2023</t>
-  </si>
-  <si>
-    <t>Auditoría Superior de la Federación ASF</t>
-  </si>
-  <si>
-    <t>,kj</t>
-  </si>
-  <si>
-    <t>Entrega 1</t>
-  </si>
-  <si>
-    <t>Secretaría de la Función Pública SFP</t>
-  </si>
-  <si>
-    <t>jfvgnkdfvk</t>
-  </si>
-  <si>
-    <t>Entrega 2</t>
-  </si>
-  <si>
-    <t>Contraloría y Transparencia Gubernamental Gobierno del Estado de Nuevo León CTG</t>
-  </si>
-  <si>
-    <t>DASA-0122-2023</t>
-  </si>
-  <si>
-    <t>65/2023</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
-    <t>DASA-1122-2023</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>2024-04-13</t>
-  </si>
-  <si>
-    <t>2024-04-08</t>
-  </si>
-  <si>
-    <t>Solicitud de información' relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
-  </si>
-  <si>
-    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en · la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
-  </si>
-  <si>
-    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
-  </si>
-  <si>
-    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las 'Entidades Federativas y los Municipios</t>
-  </si>
-  <si>
-    <t>En alcance al oficio DASA-0081/2023, relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
-  </si>
-  <si>
-    <t>Solicitud de información relativa a la1 Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitud de información complementaria a la 
-Auditoría 1326, cumplimiento de las Disposiciones Establecidas en al Ley de Disciplina Financiera de las Entidades Federativas y los Municipios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitud de información complementaria a la 
-Auditoría 1326, cumplimiento de las Disposiciones Establecidas en al Ley de Disciplina Financiera de las Entidades Federativas y los Municipios 
-</t>
-  </si>
-  <si>
-    <t>Se otorga prórroga</t>
+    <t>DCCP-103-2023</t>
+  </si>
+  <si>
+    <t>DAF-265-2023</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>DAMOP-264-2023</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>DCCP-CC-005-2023</t>
+  </si>
+  <si>
+    <t>DDPYPF-019-2023</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>SI-029-FEB-2023</t>
+  </si>
+  <si>
+    <t>Solicitud de información Auditoría UAG-AOR-052-2023-19-U006, Recursos de los Subsidios para Organismos Descentralizados Estatales/Educación Media Superior 2022.</t>
+  </si>
+  <si>
+    <t>Solicitud de información Auditoría 1328, Distribución de las Participaciones Federales 2022</t>
   </si>
 </sst>
 </file>
@@ -837,7 +701,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AT28"/>
+  <dimension ref="A1:AT19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B2" sqref="B2"/>
@@ -900,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -931,9 +795,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
+      <c r="B6"/>
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="7" t="s">
@@ -1114,702 +976,336 @@
       </c>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11"/>
+      <c r="H11"/>
+      <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="F11"/>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
+      <c r="K11"/>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" t="s">
-        <v>91</v>
-      </c>
-      <c r="T11"/>
-      <c r="U11" t="s">
-        <v>92</v>
-      </c>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Z11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA11">
-        <v>123</v>
-      </c>
-      <c r="AB11">
-        <v>123</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO11"/>
+      <c r="AP11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>47</v>
       </c>
-      <c r="AP11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR11"/>
+      <c r="AR11" t="s">
+        <v>70</v>
+      </c>
       <c r="AS11"/>
       <c r="AT11"/>
     </row>
     <row r="12" spans="1:46">
       <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="D12"/>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
+      <c r="H12"/>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="K12"/>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" t="s">
-        <v>93</v>
-      </c>
-      <c r="S12" t="s">
-        <v>94</v>
-      </c>
-      <c r="T12"/>
-      <c r="U12" t="s">
-        <v>95</v>
-      </c>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="AO12" t="s">
-        <v>50</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AO12"/>
       <c r="AP12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AQ12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AR12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>64</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AS12"/>
+      <c r="AT12"/>
     </row>
     <row r="13" spans="1:46">
       <c r="H13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S13" t="s">
-        <v>97</v>
-      </c>
-      <c r="T13" t="s">
-        <v>98</v>
-      </c>
-      <c r="U13" t="s">
-        <v>92</v>
-      </c>
-      <c r="V13" t="s">
-        <v>99</v>
-      </c>
-      <c r="W13" t="s">
-        <v>100</v>
-      </c>
-      <c r="X13" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AP13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AQ13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>86</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AS13"/>
+      <c r="AT13"/>
     </row>
     <row r="14" spans="1:46">
       <c r="H14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s">
-        <v>86</v>
-      </c>
-      <c r="R14" t="s">
-        <v>93</v>
-      </c>
-      <c r="S14" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14">
-        <v>2023</v>
-      </c>
-      <c r="U14"/>
-      <c r="V14" t="s">
-        <v>102</v>
-      </c>
-      <c r="W14" t="s">
-        <v>103</v>
-      </c>
-      <c r="X14" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="AO14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AP14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AQ14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AR14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>83</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="AS14"/>
+      <c r="AT14"/>
     </row>
     <row r="15" spans="1:46">
       <c r="H15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP15" t="s">
         <v>53</v>
       </c>
-      <c r="N15" t="s">
-        <v>87</v>
-      </c>
-      <c r="O15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>58</v>
-      </c>
       <c r="AQ15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS15"/>
-      <c r="AT15"/>
+        <v>54</v>
+      </c>
+      <c r="AR15"/>
+      <c r="AS15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:46">
       <c r="H16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO16" t="s">
         <v>55</v>
       </c>
-      <c r="N16" t="s">
-        <v>89</v>
-      </c>
-      <c r="O16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>47</v>
-      </c>
       <c r="AP16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AQ16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS16"/>
-      <c r="AT16"/>
+        <v>54</v>
+      </c>
+      <c r="AR16"/>
+      <c r="AS16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:46">
       <c r="H17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AO17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AP17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AQ17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>109</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AR17"/>
       <c r="AS17" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AT17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:46">
       <c r="H18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K18" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AO18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AP18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AQ18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>111</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AR18"/>
       <c r="AS18" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AT18" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:46">
       <c r="H19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AO19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AP19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AQ19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS19"/>
-      <c r="AT19"/>
-    </row>
-    <row r="20" spans="1:46">
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR19"/>
+      <c r="AS19" t="s">
         <v>67</v>
       </c>
-      <c r="J20" t="s">
+      <c r="AT19" t="s">
         <v>68</v>
       </c>
-      <c r="K20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS20"/>
-      <c r="AT20"/>
-    </row>
-    <row r="21" spans="1:46">
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS21"/>
-      <c r="AT21"/>
-    </row>
-    <row r="22" spans="1:46">
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS22"/>
-      <c r="AT22"/>
-    </row>
-    <row r="23" spans="1:46">
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS23"/>
-      <c r="AT23"/>
-    </row>
-    <row r="24" spans="1:46">
-      <c r="H24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS24"/>
-      <c r="AT24"/>
-    </row>
-    <row r="25" spans="1:46">
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS25"/>
-      <c r="AT25"/>
-    </row>
-    <row r="26" spans="1:46">
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS26"/>
-      <c r="AT26"/>
-    </row>
-    <row r="27" spans="1:46">
-      <c r="H27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS27"/>
-      <c r="AT27"/>
-    </row>
-    <row r="28" spans="1:46">
-      <c r="H28" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS28"/>
-      <c r="AT28"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/reportes/auditoria.xlsx
+++ b/public/reportes/auditoria.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>Año de Auditoría:</t>
   </si>
@@ -41,6 +41,9 @@
     <t>ÁREA NOTIFICADA</t>
   </si>
   <si>
+    <t>Entrega</t>
+  </si>
+  <si>
     <t>CONTESTACIÓN ÓRGANO FISCALIZADOR</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>FECHA RECIBIDO</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
     <t>ÓRGANO</t>
   </si>
   <si>
@@ -125,109 +131,353 @@
     <t>SOLICITUD</t>
   </si>
   <si>
-    <t>Distribución de las Participaciones Federales</t>
-  </si>
-  <si>
-    <t>Dirección General de Evaluación del Gasto Federalizado</t>
+    <t>Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y
+los Municipios</t>
+  </si>
+  <si>
+    <t>Dirección General de Auditoría del Gasto Federalizado "C"</t>
   </si>
   <si>
     <t>Programa Anual de Auditorías para la Fiscalización Superior (PAAF)</t>
   </si>
   <si>
-    <t>CTG-DCASC-112-2023</t>
-  </si>
-  <si>
-    <t>2023-02-13</t>
-  </si>
-  <si>
-    <t>CTG-DCASC-233-2023</t>
-  </si>
-  <si>
-    <t>AEGF-0070-2023</t>
-  </si>
-  <si>
-    <t>AEGF-3356-2023</t>
+    <t>2022_1326_AFITAME_001</t>
+  </si>
+  <si>
+    <t>AEGF-5045-2023</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>CTG-DCASC-459-2023</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>prueba de oficio 2</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>prueba de oficio 1</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
+  </si>
+  <si>
+    <t>DASA-0004-2024</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN GENERAL ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>DASA-0077-2023</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>DASA-0078-2023</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE PRESUPUESTO Y CONTROL PRESUPUESTAL</t>
+  </si>
+  <si>
+    <t>DASA-0079-2023</t>
+  </si>
+  <si>
+    <t>PROCURADURÍA FISCAL</t>
+  </si>
+  <si>
+    <t>DASA-0080-2023</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>DASA-0081-2023</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE ADMINISTRACIÓN FINANCIERA</t>
+  </si>
+  <si>
+    <t>DASA-0082-2023</t>
+  </si>
+  <si>
+    <t>DASA-0100-2023</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>DASA-0130-2023</t>
+  </si>
+  <si>
+    <t>2023-06-07</t>
+  </si>
+  <si>
+    <t>DASA-0242-2023</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>DASA-0248-2023</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>DASA-0249-2023</t>
+  </si>
+  <si>
+    <t>DASA-0250-2023</t>
+  </si>
+  <si>
+    <t>DASA-0254-2023</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>DASA-0255-2023</t>
+  </si>
+  <si>
+    <t>2023-07-07</t>
+  </si>
+  <si>
+    <t>DASA-0269-2023</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>DASA-0272-2023</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>DASA-0280-2023</t>
+  </si>
+  <si>
+    <t>2023-07-13</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>CGA-0228-2023</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>DAF-1067-2023</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>DCCP-0480-2023</t>
+  </si>
+  <si>
+    <t>DDPYPF-090-2023</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>DDPYPF-092-2023</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>DPCP-348-2023</t>
+  </si>
+  <si>
+    <t>Entrega 3</t>
+  </si>
+  <si>
+    <t>prueba entrega 3</t>
+  </si>
+  <si>
+    <t>09/05/2024</t>
+  </si>
+  <si>
+    <t>Entrega 2</t>
+  </si>
+  <si>
+    <t>prueba con entrega 2</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>02/05/2024</t>
+  </si>
+  <si>
+    <t>Entrega 1</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>Auditoría Superior de la Federación ASF</t>
+  </si>
+  <si>
+    <t>,kj</t>
+  </si>
+  <si>
+    <t>Contraloría y Transparencia Gubernamental Gobierno del Estado de Nuevo León CTG</t>
+  </si>
+  <si>
+    <t>DCCP-0313-2023</t>
+  </si>
+  <si>
+    <t>398/2023</t>
+  </si>
+  <si>
+    <t>2023-03-29</t>
+  </si>
+  <si>
+    <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>Secretaría de la Función Pública SFP</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>prueba de nombre de oficio</t>
+  </si>
+  <si>
+    <t>DASA-0122-2023</t>
+  </si>
+  <si>
+    <t>65/2023</t>
+  </si>
+  <si>
+    <t>2023-06-08</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>DASA-1122-2023</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>pruebas</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
   </si>
   <si>
     <t>2024-05-09</t>
   </si>
   <si>
-    <t>DASA-0001-2023</t>
-  </si>
-  <si>
-    <t>2023-05-16</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN DE PLANEACIÓN HACENDARIA</t>
-  </si>
-  <si>
-    <t>DASA-0044-2023</t>
-  </si>
-  <si>
-    <t>2023-05-23</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
-  </si>
-  <si>
-    <t>DASA-0046-2023</t>
-  </si>
-  <si>
-    <t>DCCP-0099-2023</t>
-  </si>
-  <si>
-    <t>2023-02-07</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE ADMINISTRACIÓN FINANCIERA</t>
-  </si>
-  <si>
-    <t>DCCP-0100-2023</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE ATENCIÓN A MUNICIPIOS Y ORGANISMOS PARAESTATALES</t>
-  </si>
-  <si>
-    <t>DCCP-0101-2023</t>
-  </si>
-  <si>
-    <t>DCCP-102-2023</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>DCCP-103-2023</t>
-  </si>
-  <si>
-    <t>DAF-265-2023</t>
-  </si>
-  <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>DAMOP-264-2023</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>DCCP-CC-005-2023</t>
-  </si>
-  <si>
-    <t>DDPYPF-019-2023</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>SI-029-FEB-2023</t>
-  </si>
-  <si>
-    <t>Solicitud de información Auditoría UAG-AOR-052-2023-19-U006, Recursos de los Subsidios para Organismos Descentralizados Estatales/Educación Media Superior 2022.</t>
-  </si>
-  <si>
-    <t>Solicitud de información Auditoría 1328, Distribución de las Participaciones Federales 2022</t>
+    <t>oficio r organo</t>
+  </si>
+  <si>
+    <t>Auditoria Superior del Estado de Nuevo Leon ASENL</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>2024-04-13</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>preuba123</t>
+  </si>
+  <si>
+    <t>Solicitud de información' relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en · la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>Solicitud de información relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las 'Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>En alcance al oficio DASA-0081/2023, relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t>Solicitud de información relativa a la1 Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de información complementaria a la 
+Auditoría 1326, cumplimiento de las Disposiciones Establecidas en al Ley de Disciplina Financiera de las Entidades Federativas y los Municipios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de información complementaria a la 
+Auditoría 1326, cumplimiento de las Disposiciones Establecidas en al Ley de Disciplina Financiera de las Entidades Federativas y los Municipios 
+</t>
+  </si>
+  <si>
+    <t>Se otorga prórroga</t>
   </si>
 </sst>
 </file>
@@ -701,7 +951,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AT19"/>
+  <dimension ref="A1:AX31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B2" sqref="B2"/>
@@ -723,35 +973,38 @@
     <col min="14" max="14" width="20.1796875" customWidth="true" style="0"/>
     <col min="15" max="15" width="16.1796875" customWidth="true" style="0"/>
     <col min="16" max="16" width="19.36328125" customWidth="true" style="0"/>
-    <col min="18" max="18" width="22" customWidth="true" style="0"/>
-    <col min="19" max="19" width="13.90625" customWidth="true" style="0"/>
-    <col min="20" max="20" width="11.453125" customWidth="true" style="0"/>
-    <col min="21" max="21" width="11.453125" customWidth="true" style="0"/>
-    <col min="22" max="22" width="12.54296875" customWidth="true" style="0"/>
-    <col min="23" max="23" width="14.7265625" customWidth="true" style="0"/>
-    <col min="24" max="24" width="18.26953125" customWidth="true" style="0"/>
-    <col min="26" max="26" width="19" customWidth="true" style="0"/>
-    <col min="27" max="27" width="19" customWidth="true" style="0"/>
-    <col min="28" max="28" width="19" customWidth="true" style="0"/>
-    <col min="29" max="29" width="19" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" customWidth="true" style="0"/>
+    <col min="19" max="19" width="19.81640625" customWidth="true" style="0"/>
+    <col min="20" max="20" width="15" customWidth="true" style="0"/>
+    <col min="22" max="22" width="22" customWidth="true" style="0"/>
+    <col min="23" max="23" width="13.90625" customWidth="true" style="0"/>
+    <col min="24" max="24" width="11.453125" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11.453125" customWidth="true" style="0"/>
+    <col min="26" max="26" width="12.54296875" customWidth="true" style="0"/>
+    <col min="27" max="27" width="14.7265625" customWidth="true" style="0"/>
+    <col min="28" max="28" width="18.26953125" customWidth="true" style="0"/>
     <col min="30" max="30" width="19" customWidth="true" style="0"/>
     <col min="31" max="31" width="19" customWidth="true" style="0"/>
-    <col min="33" max="33" width="18" customWidth="true" style="0"/>
-    <col min="34" max="34" width="25.81640625" customWidth="true" style="0"/>
-    <col min="35" max="35" width="7.54296875" customWidth="true" style="0"/>
-    <col min="36" max="36" width="21.1796875" customWidth="true" style="0"/>
-    <col min="37" max="37" width="32.81640625" customWidth="true" style="0"/>
-    <col min="38" max="38" width="24.453125" customWidth="true" style="0"/>
-    <col min="39" max="39" width="19" customWidth="true" style="0"/>
-    <col min="41" max="41" width="27.54296875" customWidth="true" style="0"/>
-    <col min="42" max="42" width="15" customWidth="true" style="0"/>
-    <col min="43" max="43" width="12.1796875" customWidth="true" style="0"/>
-    <col min="44" max="44" width="18.81640625" customWidth="true" style="0"/>
-    <col min="45" max="45" width="15.08984375" customWidth="true" style="0"/>
-    <col min="46" max="46" width="14.7265625" customWidth="true" style="0"/>
+    <col min="32" max="32" width="19" customWidth="true" style="0"/>
+    <col min="33" max="33" width="19" customWidth="true" style="0"/>
+    <col min="34" max="34" width="19" customWidth="true" style="0"/>
+    <col min="35" max="35" width="19" customWidth="true" style="0"/>
+    <col min="37" max="37" width="18" customWidth="true" style="0"/>
+    <col min="38" max="38" width="25.81640625" customWidth="true" style="0"/>
+    <col min="39" max="39" width="7.54296875" customWidth="true" style="0"/>
+    <col min="40" max="40" width="21.1796875" customWidth="true" style="0"/>
+    <col min="41" max="41" width="32.81640625" customWidth="true" style="0"/>
+    <col min="42" max="42" width="24.453125" customWidth="true" style="0"/>
+    <col min="43" max="43" width="19" customWidth="true" style="0"/>
+    <col min="45" max="45" width="27.54296875" customWidth="true" style="0"/>
+    <col min="46" max="46" width="15" customWidth="true" style="0"/>
+    <col min="47" max="47" width="12.1796875" customWidth="true" style="0"/>
+    <col min="48" max="48" width="18.81640625" customWidth="true" style="0"/>
+    <col min="49" max="49" width="15.08984375" customWidth="true" style="0"/>
+    <col min="50" max="50" width="14.7265625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,45 +1012,47 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6"/>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -818,98 +1073,100 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="V9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
-      <c r="Z9" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
+      <c r="AD9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AE9" s="9"/>
-      <c r="AG9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AK9" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8"/>
-      <c r="AO9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AS9" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="AT9" s="7"/>
-    </row>
-    <row r="10" spans="1:46" customHeight="1" ht="15.5">
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+    </row>
+    <row r="10" spans="1:50" customHeight="1" ht="15.5">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>21</v>
@@ -917,405 +1174,1062 @@
       <c r="X10" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="Y10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="Z10" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11">
         <v>14</v>
       </c>
-      <c r="AD10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46">
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11"/>
-      <c r="H11"/>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" t="s">
+        <v>104</v>
+      </c>
+      <c r="S11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11" t="s">
+        <v>114</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF11"/>
+      <c r="AG11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI11"/>
+      <c r="AS11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT11">
+        <v>14</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" t="s">
+        <v>109</v>
+      </c>
+      <c r="V12" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE12">
+        <v>1232</v>
+      </c>
+      <c r="AF12"/>
+      <c r="AG12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI12"/>
+      <c r="AS12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" t="s">
+        <v>111</v>
+      </c>
+      <c r="V13" t="s">
+        <v>121</v>
+      </c>
+      <c r="W13">
+        <v>343</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB13"/>
+      <c r="AD13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF13"/>
+      <c r="AG13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI13"/>
+      <c r="AS13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" t="s">
         <v>46</v>
       </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11"/>
-      <c r="M11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO11"/>
-      <c r="AP11" t="s">
+      <c r="K14" t="s">
         <v>46</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS11"/>
-      <c r="AT11"/>
-    </row>
-    <row r="12" spans="1:46">
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12"/>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO12"/>
-      <c r="AP12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS12"/>
-      <c r="AT12"/>
-    </row>
-    <row r="13" spans="1:46">
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS13"/>
-      <c r="AT13"/>
-    </row>
-    <row r="14" spans="1:46">
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" t="s">
-        <v>50</v>
       </c>
       <c r="M14" t="s">
         <v>60</v>
       </c>
       <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s">
+        <v>100</v>
+      </c>
+      <c r="R14" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14"/>
+      <c r="T14" t="s">
+        <v>113</v>
+      </c>
+      <c r="V14" t="s">
+        <v>121</v>
+      </c>
+      <c r="W14" t="s">
+        <v>123</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF14"/>
+      <c r="AG14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI14"/>
+      <c r="AS14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="s">
+        <v>102</v>
+      </c>
+      <c r="V15" t="s">
+        <v>116</v>
+      </c>
+      <c r="W15" t="s">
+        <v>124</v>
+      </c>
+      <c r="X15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y15"/>
+      <c r="Z15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE15">
+        <v>123</v>
+      </c>
+      <c r="AF15">
+        <v>123</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s">
+        <v>97</v>
+      </c>
+      <c r="V16" t="s">
+        <v>121</v>
+      </c>
+      <c r="W16" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16">
+        <v>2023</v>
+      </c>
+      <c r="Y16"/>
+      <c r="Z16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB16"/>
+      <c r="AD16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF16"/>
+      <c r="AG16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW16"/>
+      <c r="AX16"/>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
         <v>67</v>
       </c>
-      <c r="O14" t="s">
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" t="s">
+        <v>114</v>
+      </c>
+      <c r="W17" t="s">
+        <v>131</v>
+      </c>
+      <c r="X17"/>
+      <c r="Y17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB17"/>
+      <c r="AD17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE17">
+        <v>44</v>
+      </c>
+      <c r="AF17"/>
+      <c r="AG17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI17"/>
+      <c r="AS17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW17"/>
+      <c r="AX17"/>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="H18" t="s">
         <v>68</v>
       </c>
-      <c r="P14" t="s">
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>121</v>
+      </c>
+      <c r="W18" t="s">
+        <v>134</v>
+      </c>
+      <c r="X18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y18"/>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS18" t="s">
         <v>68</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AT18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50">
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW20"/>
+      <c r="AX20"/>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW21"/>
+      <c r="AX21"/>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW22"/>
+      <c r="AX22"/>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW23"/>
+      <c r="AX23"/>
+    </row>
+    <row r="24" spans="1:50">
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW24"/>
+      <c r="AX24"/>
+    </row>
+    <row r="25" spans="1:50">
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW25"/>
+      <c r="AX25"/>
+    </row>
+    <row r="26" spans="1:50">
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW26"/>
+      <c r="AX26"/>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW27"/>
+      <c r="AX27"/>
+    </row>
+    <row r="28" spans="1:50">
+      <c r="H28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW28"/>
+      <c r="AX28"/>
+    </row>
+    <row r="29" spans="1:50">
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW29"/>
+      <c r="AX29"/>
+    </row>
+    <row r="30" spans="1:50">
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="H31" t="s">
         <v>51</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="I31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" t="s">
         <v>52</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS14"/>
-      <c r="AT14"/>
-    </row>
-    <row r="15" spans="1:46">
-      <c r="H15" t="s">
+      <c r="AS31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU31" t="s">
         <v>48</v>
       </c>
-      <c r="I15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR15"/>
-      <c r="AS15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46">
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR16"/>
-      <c r="AS16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46">
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR17"/>
-      <c r="AS17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR18"/>
-      <c r="AS18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46">
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR19"/>
-      <c r="AS19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>68</v>
-      </c>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AO9:AT9"/>
+    <mergeCell ref="AS9:AX9"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="R9:X9"/>
-    <mergeCell ref="AG9:AM9"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AK9:AQ9"/>
     <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Z9:AE9"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="R9:T9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/reportes/auditoria.xlsx
+++ b/public/reportes/auditoria.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>Año de Auditoría:</t>
   </si>
@@ -144,6 +144,9 @@
     <t>2022_1326_AFITAME_001</t>
   </si>
   <si>
+    <t>oficio prueba 1</t>
+  </si>
+  <si>
     <t>AEGF-5045-2023</t>
   </si>
   <si>
@@ -153,54 +156,45 @@
     <t>CTG-DCASC-459-2023</t>
   </si>
   <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>COMUNICACIÓN</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
+  </si>
+  <si>
+    <t>DASA-0004-2024</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN GENERAL ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>DASA-0077-2023</t>
+  </si>
+  <si>
+    <t>2023-05-27</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
+  </si>
+  <si>
+    <t>DASA-0078-2023</t>
+  </si>
+  <si>
     <t>2023-05-26</t>
   </si>
   <si>
-    <t>prueba de oficio 2</t>
-  </si>
-  <si>
-    <t>2024-05-01</t>
-  </si>
-  <si>
-    <t>prueba de oficio 1</t>
-  </si>
-  <si>
-    <t>2024-05-24</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t>2024-05-02</t>
-  </si>
-  <si>
-    <t>2024-05-03</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE CONTABILIDAD Y CUENTA PÚBLICA</t>
-  </si>
-  <si>
-    <t>DASA-0004-2024</t>
-  </si>
-  <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN GENERAL ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>DASA-0077-2023</t>
-  </si>
-  <si>
-    <t>2023-05-27</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DE DEUDA PÚBLICA</t>
-  </si>
-  <si>
-    <t>DASA-0078-2023</t>
-  </si>
-  <si>
     <t>DIRECCIÓN DE PRESUPUESTO Y CONTROL PRESUPUESTAL</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>DASA-0254-2023</t>
   </si>
   <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
     <t>DASA-0255-2023</t>
   </si>
   <si>
@@ -270,52 +261,40 @@
     <t>DASA-0269-2023</t>
   </si>
   <si>
-    <t>2023-10-07</t>
+    <t>2023-07-10</t>
   </si>
   <si>
     <t>DASA-0272-2023</t>
   </si>
   <si>
-    <t>2023-07-10</t>
-  </si>
-  <si>
     <t>DASA-0280-2023</t>
   </si>
   <si>
     <t>2023-07-13</t>
   </si>
   <si>
-    <t>DIRECCIÓN ADMINISTRATIVA</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
+    <t>COORDINACIÓN DE PLANEACIÓN HACENDARIA</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
   </si>
   <si>
     <t>CGA-0228-2023</t>
   </si>
   <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
     <t>DAF-1067-2023</t>
   </si>
   <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
     <t>DCCP-0480-2023</t>
   </si>
   <si>
     <t>DDPYPF-090-2023</t>
   </si>
   <si>
-    <t>2023-06-05</t>
+    <t>2023-06-06</t>
   </si>
   <si>
     <t>DDPYPF-092-2023</t>
@@ -327,127 +306,48 @@
     <t>DPCP-348-2023</t>
   </si>
   <si>
-    <t>Entrega 3</t>
-  </si>
-  <si>
-    <t>prueba entrega 3</t>
-  </si>
-  <si>
-    <t>09/05/2024</t>
-  </si>
-  <si>
-    <t>Entrega 2</t>
-  </si>
-  <si>
-    <t>prueba con entrega 2</t>
-  </si>
-  <si>
-    <t>21/05/2024</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>02/05/2024</t>
-  </si>
-  <si>
-    <t>Entrega 1</t>
-  </si>
-  <si>
-    <t>15/05/2024</t>
+    <t>PF-CGJ-2991/2023</t>
+  </si>
+  <si>
+    <t>2024-06-15</t>
+  </si>
+  <si>
+    <t>Contraloría y Transparencia Gubernamental Gobierno del Estado de Nuevo León CTG</t>
+  </si>
+  <si>
+    <t>DASA-0108-2023</t>
+  </si>
+  <si>
+    <t>2023-06-11</t>
+  </si>
+  <si>
+    <t>DASA-0122-2023</t>
   </si>
   <si>
     <t>Auditoría Superior de la Federación ASF</t>
   </si>
   <si>
-    <t>,kj</t>
-  </si>
-  <si>
-    <t>Contraloría y Transparencia Gubernamental Gobierno del Estado de Nuevo León CTG</t>
-  </si>
-  <si>
-    <t>DCCP-0313-2023</t>
-  </si>
-  <si>
-    <t>398/2023</t>
-  </si>
-  <si>
-    <t>2023-03-29</t>
-  </si>
-  <si>
-    <t>2023-03-30</t>
-  </si>
-  <si>
-    <t>Secretaría de la Función Pública SFP</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>prueba de nombre de oficio</t>
-  </si>
-  <si>
-    <t>DASA-0122-2023</t>
-  </si>
-  <si>
-    <t>65/2023</t>
-  </si>
-  <si>
-    <t>2023-06-08</t>
-  </si>
-  <si>
-    <t>2023-06-09</t>
-  </si>
-  <si>
-    <t>DASA-1122-2023</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
-    <t>prueba</t>
-  </si>
-  <si>
-    <t>2024-05-05</t>
-  </si>
-  <si>
-    <t>2024-05-06</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>pruebas</t>
-  </si>
-  <si>
-    <t>2024-05-08</t>
-  </si>
-  <si>
-    <t>2024-05-09</t>
-  </si>
-  <si>
-    <t>oficio r organo</t>
-  </si>
-  <si>
-    <t>Auditoria Superior del Estado de Nuevo Leon ASENL</t>
-  </si>
-  <si>
-    <t>2024-05-12</t>
-  </si>
-  <si>
-    <t>2024-05-13</t>
-  </si>
-  <si>
-    <t>2024-04-13</t>
-  </si>
-  <si>
-    <t>2024-04-08</t>
-  </si>
-  <si>
-    <t>preuba123</t>
+    <t>CTG-DCASC-538-2023</t>
+  </si>
+  <si>
+    <t>0136/2023</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>Recomendación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con Seguimiento Concluido
+</t>
+  </si>
+  <si>
+    <t>Promoción de Intervención de la Instancia de Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En DGI
+</t>
   </si>
   <si>
     <t>Solicitud de información' relativa a la Auditoría 1326, Cumplimiento de las Disposiciones Establecidas en la Ley de Disciplina Financiera de las Entidades Federativas y los Municipios</t>
@@ -951,7 +851,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AX31"/>
+  <dimension ref="A1:AX30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B2" sqref="B2"/>
@@ -1248,977 +1148,790 @@
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
+      <c r="B11"/>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
         <v>49</v>
       </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" t="s">
-        <v>53</v>
-      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="M11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" t="s">
+        <v>99</v>
+      </c>
+      <c r="W11" t="s">
+        <v>100</v>
+      </c>
+      <c r="X11"/>
+      <c r="Z11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE11" t="s">
         <v>104</v>
       </c>
-      <c r="S11" t="s">
+      <c r="AF11" t="s">
         <v>105</v>
       </c>
-      <c r="T11" t="s">
+      <c r="AG11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI11" t="s">
         <v>106</v>
       </c>
-      <c r="V11" t="s">
-        <v>114</v>
-      </c>
-      <c r="W11" t="s">
-        <v>115</v>
-      </c>
-      <c r="X11"/>
-      <c r="Y11" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF11"/>
-      <c r="AG11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI11"/>
+      <c r="AK11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM11">
+        <v>2.0</v>
+      </c>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
       <c r="AS11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT11">
-        <v>14</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU11"/>
       <c r="AV11"/>
       <c r="AW11"/>
       <c r="AX11"/>
     </row>
     <row r="12" spans="1:50">
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
       <c r="M12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" t="s">
-        <v>96</v>
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12"/>
+      <c r="Z12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB12"/>
+      <c r="AK12" t="s">
         <v>107</v>
       </c>
-      <c r="S12" t="s">
+      <c r="AL12" t="s">
         <v>108</v>
       </c>
-      <c r="T12" t="s">
-        <v>109</v>
-      </c>
-      <c r="V12" t="s">
-        <v>116</v>
-      </c>
-      <c r="W12" t="s">
-        <v>117</v>
-      </c>
-      <c r="X12" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE12">
-        <v>1232</v>
-      </c>
-      <c r="AF12"/>
-      <c r="AG12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI12"/>
+      <c r="AM12">
+        <v>0.0</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
       <c r="AS12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AT12">
+        <v>12</v>
+      </c>
+      <c r="AU12"/>
       <c r="AV12"/>
       <c r="AW12"/>
       <c r="AX12"/>
     </row>
     <row r="13" spans="1:50">
       <c r="H13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
         <v>54</v>
       </c>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13" t="s">
-        <v>104</v>
-      </c>
-      <c r="S13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL13" t="s">
         <v>110</v>
       </c>
-      <c r="T13" t="s">
-        <v>111</v>
-      </c>
-      <c r="V13" t="s">
-        <v>121</v>
-      </c>
-      <c r="W13">
-        <v>343</v>
-      </c>
-      <c r="X13"/>
-      <c r="Y13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="AM13">
+        <v>22.0</v>
+      </c>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT13" t="s">
         <v>52</v>
       </c>
-      <c r="AA13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB13"/>
-      <c r="AD13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF13"/>
-      <c r="AG13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI13"/>
-      <c r="AS13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>58</v>
-      </c>
       <c r="AU13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>145</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>95</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
     </row>
     <row r="14" spans="1:50">
       <c r="H14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
-      </c>
-      <c r="R14" t="s">
-        <v>112</v>
-      </c>
-      <c r="S14"/>
-      <c r="T14" t="s">
-        <v>113</v>
-      </c>
-      <c r="V14" t="s">
-        <v>121</v>
-      </c>
-      <c r="W14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF14"/>
-      <c r="AG14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI14"/>
+        <v>47</v>
+      </c>
       <c r="AS14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AT14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AU14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AV14" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="AW14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="AX14" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:50">
       <c r="H15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
-      </c>
-      <c r="V15" t="s">
-        <v>116</v>
-      </c>
-      <c r="W15" t="s">
-        <v>124</v>
-      </c>
-      <c r="X15" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y15"/>
-      <c r="Z15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE15">
-        <v>123</v>
-      </c>
-      <c r="AF15">
-        <v>123</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="AS15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AT15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AU15" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AV15" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="AW15" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AX15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:50">
       <c r="H16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
-      </c>
-      <c r="V16" t="s">
-        <v>121</v>
-      </c>
-      <c r="W16" t="s">
-        <v>128</v>
-      </c>
-      <c r="X16">
-        <v>2023</v>
-      </c>
-      <c r="Y16"/>
-      <c r="Z16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB16"/>
-      <c r="AD16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF16"/>
-      <c r="AG16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="AS16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AT16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AU16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AV16" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW16"/>
-      <c r="AX16"/>
+        <v>113</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:50">
       <c r="H17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
-      </c>
-      <c r="V17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV17" t="s">
         <v>114</v>
       </c>
-      <c r="W17" t="s">
-        <v>131</v>
-      </c>
-      <c r="X17"/>
-      <c r="Y17" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB17"/>
-      <c r="AD17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE17">
-        <v>44</v>
-      </c>
-      <c r="AF17"/>
-      <c r="AG17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI17"/>
-      <c r="AS17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW17"/>
-      <c r="AX17"/>
+      <c r="AW17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="18" spans="1:50">
       <c r="H18" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J18" t="s">
         <v>59</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
-      </c>
-      <c r="V18" t="s">
-        <v>121</v>
-      </c>
-      <c r="W18" t="s">
-        <v>134</v>
-      </c>
-      <c r="X18" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y18"/>
-      <c r="Z18" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>94</v>
+        <v>64</v>
+      </c>
+      <c r="M18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" t="s">
+        <v>47</v>
       </c>
       <c r="AS18" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="AT18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AU18" t="s">
         <v>59</v>
       </c>
       <c r="AV18" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>97</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AW18"/>
+      <c r="AX18"/>
     </row>
     <row r="19" spans="1:50">
       <c r="H19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" t="s">
+        <v>98</v>
       </c>
       <c r="AS19" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AT19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AU19" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AV19" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="AW19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AX19" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:50">
       <c r="H20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AS20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AT20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AU20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AV20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW20"/>
-      <c r="AX20"/>
+        <v>115</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:50">
       <c r="H21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AS21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AT21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AU21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AV21" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="AW21"/>
       <c r="AX21"/>
     </row>
     <row r="22" spans="1:50">
       <c r="H22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AS22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AU22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AV22" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="AW22"/>
       <c r="AX22"/>
     </row>
     <row r="23" spans="1:50">
       <c r="H23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AS23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AT23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AU23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AV23" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="AW23"/>
       <c r="AX23"/>
     </row>
     <row r="24" spans="1:50">
       <c r="H24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AS24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AT24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AU24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AV24" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="AW24"/>
       <c r="AX24"/>
     </row>
     <row r="25" spans="1:50">
       <c r="H25" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AS25" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AT25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AU25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AV25" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="AW25"/>
       <c r="AX25"/>
     </row>
     <row r="26" spans="1:50">
       <c r="H26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AS26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AT26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AU26" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AV26" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW26"/>
-      <c r="AX26"/>
+        <v>118</v>
+      </c>
+      <c r="AW26">
+        <v>12</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="1:50">
       <c r="H27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AS27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AT27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AU27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AV27" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="AW27"/>
       <c r="AX27"/>
     </row>
     <row r="28" spans="1:50">
       <c r="H28" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AS28" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AT28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AU28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AV28" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="AW28"/>
       <c r="AX28"/>
     </row>
     <row r="29" spans="1:50">
       <c r="H29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AS29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AT29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AU29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AV29" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="AW29"/>
       <c r="AX29"/>
     </row>
     <row r="30" spans="1:50">
       <c r="H30" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="AS30" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="AT30" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AU30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV30"/>
+        <v>85</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>119</v>
+      </c>
       <c r="AW30"/>
       <c r="AX30"/>
-    </row>
-    <row r="31" spans="1:50">
-      <c r="H31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV31"/>
-      <c r="AW31"/>
-      <c r="AX31"/>
     </row>
   </sheetData>
   <mergeCells>
